--- a/data/transportation/交通运输中观数据库.xlsx
+++ b/data/transportation/交通运输中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,11 +164,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S0114089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币汇率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0031550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国出口集装箱运价指数（CCFI）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内航线综合票价指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0109336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上海出口集装箱运价指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S0114089</t>
+    <t>M0067855</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,13 +760,57 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
